--- a/SubRES_TMPL/SubRES_SUP_BioRefineries.xlsx
+++ b/SubRES_TMPL/SubRES_SUP_BioRefineries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203B73E6-5C9F-463B-B58B-AB55961A912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A1E17F-6AF6-4A37-A540-E99B58C9DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="5360" windowWidth="14800" windowHeight="6790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1790,20 +1790,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="10" width="8.08984375" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1831,7 +1831,7 @@
       <c r="Y1" s="20"/>
       <c r="Z1" s="20"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1859,7 +1859,7 @@
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1887,7 +1887,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1915,7 +1915,7 @@
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1943,7 +1943,7 @@
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1971,7 +1971,7 @@
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1999,7 +1999,7 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2027,7 +2027,7 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -2055,7 +2055,7 @@
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -2083,7 +2083,7 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -2111,7 +2111,7 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2139,7 +2139,7 @@
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -2167,7 +2167,7 @@
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -2195,7 +2195,7 @@
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -2223,7 +2223,7 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>123</v>
       </c>
@@ -2253,7 +2253,7 @@
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2281,7 +2281,7 @@
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2309,7 +2309,7 @@
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>124</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>125</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>126</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2433,7 +2433,7 @@
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>127</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -2493,7 +2493,7 @@
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -2521,7 +2521,7 @@
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>128</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -2581,7 +2581,7 @@
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -2609,7 +2609,7 @@
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>129</v>
       </c>
@@ -2641,7 +2641,7 @@
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>130</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>132</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="33" t="s">
         <v>134</v>
@@ -2735,7 +2735,7 @@
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -2763,7 +2763,7 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -2791,7 +2791,7 @@
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -2819,7 +2819,7 @@
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -2847,7 +2847,7 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -2875,7 +2875,7 @@
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -2903,7 +2903,7 @@
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2931,7 +2931,7 @@
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -2959,7 +2959,7 @@
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2987,7 +2987,7 @@
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3015,7 +3015,7 @@
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3043,7 +3043,7 @@
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -3071,7 +3071,7 @@
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -3099,7 +3099,7 @@
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -3127,7 +3127,7 @@
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -3155,7 +3155,7 @@
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -3183,7 +3183,7 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -3211,7 +3211,7 @@
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -3239,7 +3239,7 @@
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -3267,7 +3267,7 @@
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -3295,7 +3295,7 @@
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -3323,7 +3323,7 @@
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3351,7 +3351,7 @@
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -3379,7 +3379,7 @@
       <c r="Y55" s="20"/>
       <c r="Z55" s="20"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -3407,7 +3407,7 @@
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -3435,7 +3435,7 @@
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -3463,7 +3463,7 @@
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -3491,7 +3491,7 @@
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -3519,7 +3519,7 @@
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -3547,7 +3547,7 @@
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -3575,7 +3575,7 @@
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -3603,7 +3603,7 @@
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -3631,7 +3631,7 @@
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -3659,7 +3659,7 @@
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -3687,7 +3687,7 @@
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -3715,7 +3715,7 @@
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -3743,7 +3743,7 @@
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -3771,7 +3771,7 @@
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -3799,7 +3799,7 @@
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -3827,7 +3827,7 @@
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -3855,7 +3855,7 @@
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -3883,7 +3883,7 @@
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -3911,7 +3911,7 @@
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -3939,7 +3939,7 @@
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -3967,7 +3967,7 @@
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -3995,7 +3995,7 @@
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -4023,7 +4023,7 @@
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -4051,7 +4051,7 @@
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -4079,7 +4079,7 @@
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -4107,7 +4107,7 @@
       <c r="Y81" s="20"/>
       <c r="Z81" s="20"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -4135,7 +4135,7 @@
       <c r="Y82" s="20"/>
       <c r="Z82" s="20"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -4163,7 +4163,7 @@
       <c r="Y83" s="20"/>
       <c r="Z83" s="20"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -4191,7 +4191,7 @@
       <c r="Y84" s="20"/>
       <c r="Z84" s="20"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -4219,7 +4219,7 @@
       <c r="Y85" s="20"/>
       <c r="Z85" s="20"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -4247,7 +4247,7 @@
       <c r="Y86" s="20"/>
       <c r="Z86" s="20"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -4275,7 +4275,7 @@
       <c r="Y87" s="20"/>
       <c r="Z87" s="20"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -4303,7 +4303,7 @@
       <c r="Y88" s="20"/>
       <c r="Z88" s="20"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -4331,7 +4331,7 @@
       <c r="Y89" s="20"/>
       <c r="Z89" s="20"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -4359,7 +4359,7 @@
       <c r="Y90" s="20"/>
       <c r="Z90" s="20"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -4387,7 +4387,7 @@
       <c r="Y91" s="20"/>
       <c r="Z91" s="20"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -4415,7 +4415,7 @@
       <c r="Y92" s="20"/>
       <c r="Z92" s="20"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -4443,7 +4443,7 @@
       <c r="Y93" s="20"/>
       <c r="Z93" s="20"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -4471,7 +4471,7 @@
       <c r="Y94" s="20"/>
       <c r="Z94" s="20"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -4499,7 +4499,7 @@
       <c r="Y95" s="20"/>
       <c r="Z95" s="20"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -4527,7 +4527,7 @@
       <c r="Y96" s="20"/>
       <c r="Z96" s="20"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -4555,7 +4555,7 @@
       <c r="Y97" s="20"/>
       <c r="Z97" s="20"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -4583,7 +4583,7 @@
       <c r="Y98" s="20"/>
       <c r="Z98" s="20"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -4637,23 +4637,23 @@
   <dimension ref="B2:AJ68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="13"/>
-    <col min="2" max="2" width="23.6328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="9.08984375" style="13"/>
-    <col min="27" max="27" width="10.81640625" style="13" customWidth="1"/>
-    <col min="28" max="28" width="14.81640625" style="13" customWidth="1"/>
-    <col min="29" max="29" width="45.7265625" style="13" customWidth="1"/>
-    <col min="30" max="16384" width="9.08984375" style="13"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="23.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="9.140625" style="13"/>
+    <col min="27" max="27" width="10.85546875" style="13" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="13" customWidth="1"/>
+    <col min="29" max="29" width="45.7109375" style="13" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:36" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="2:36" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:36" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:36" s="2" customFormat="1" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:36" s="2" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="str">
         <f>AB5</f>
         <v>SBIORETH01</v>
@@ -4852,7 +4852,7 @@
         <v>94</v>
       </c>
       <c r="F5" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G5" s="2">
         <v>20</v>
@@ -4907,7 +4907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
         <f t="shared" ref="B6:C19" si="0">AB6</f>
         <v>SBIORETH02</v>
@@ -4923,7 +4923,7 @@
         <v>95</v>
       </c>
       <c r="F6" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G6" s="2">
         <v>20</v>
@@ -4968,7 +4968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORETH03</v>
@@ -4984,7 +4984,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
@@ -5029,7 +5029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST01</v>
@@ -5045,7 +5045,7 @@
         <v>96</v>
       </c>
       <c r="F8" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G8" s="2">
         <v>20</v>
@@ -5092,7 +5092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST02</v>
@@ -5108,7 +5108,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G9" s="2">
         <v>20</v>
@@ -5152,7 +5152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST03</v>
@@ -5168,7 +5168,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G10" s="2">
         <v>20</v>
@@ -5216,7 +5216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST04</v>
@@ -5232,7 +5232,7 @@
         <v>96</v>
       </c>
       <c r="F11" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
@@ -5280,7 +5280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST05</v>
@@ -5296,7 +5296,7 @@
         <v>96</v>
       </c>
       <c r="F12" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G12" s="2">
         <v>20</v>
@@ -5344,7 +5344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS01</v>
@@ -5360,7 +5360,7 @@
         <v>98</v>
       </c>
       <c r="F13" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G13" s="2">
         <v>20</v>
@@ -5395,7 +5395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS02</v>
@@ -5411,7 +5411,7 @@
         <v>99</v>
       </c>
       <c r="F14" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G14" s="2">
         <v>20</v>
@@ -5449,7 +5449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS03</v>
@@ -5465,7 +5465,7 @@
         <v>99</v>
       </c>
       <c r="F15" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G15" s="2">
         <v>20</v>
@@ -5503,7 +5503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS04</v>
@@ -5519,7 +5519,7 @@
         <v>99</v>
       </c>
       <c r="F16" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G16" s="2">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS05</v>
@@ -5574,7 +5574,7 @@
         <v>98</v>
       </c>
       <c r="F17" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G17" s="2">
         <v>20</v>
@@ -5610,7 +5610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS06</v>
@@ -5626,7 +5626,7 @@
         <v>98</v>
       </c>
       <c r="F18" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G18" s="2">
         <v>20</v>
@@ -5662,7 +5662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBWOO2WPE</v>
@@ -5678,7 +5678,7 @@
         <v>112</v>
       </c>
       <c r="F19" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G19" s="2">
         <v>20</v>
@@ -5699,8 +5699,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="str">
         <f>AB21</f>
         <v>SBIORDST06</v>
@@ -5722,13 +5722,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="str">
         <f>AB23</f>
         <v>SWtE</v>
       </c>
     </row>
-    <row r="23" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="AB23" s="2" t="s">
         <v>61</v>
       </c>
@@ -5736,10 +5736,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T28" s="2" t="s">
         <v>71</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>230.230769230769</v>
       </c>
     </row>
-    <row r="29" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T29" s="2" t="s">
         <v>72</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>611.11111111111097</v>
       </c>
     </row>
-    <row r="30" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T30" s="2" t="s">
         <v>73</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>944.444444444444</v>
       </c>
     </row>
-    <row r="31" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T31" s="2" t="s">
         <v>74</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>644.444444444444</v>
       </c>
     </row>
-    <row r="32" spans="2:31" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T32" s="2" t="s">
         <v>75</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>555.555555555556</v>
       </c>
     </row>
-    <row r="33" spans="20:35" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="33" spans="20:35" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T33" s="2" t="s">
         <v>76</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>555.555555555556</v>
       </c>
     </row>
-    <row r="34" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T34" s="13" t="s">
         <v>77</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>570.17897913322599</v>
       </c>
     </row>
-    <row r="35" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T35" s="13" t="s">
         <v>78</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="36" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T36" s="13" t="s">
         <v>79</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>421.96853932584298</v>
       </c>
     </row>
-    <row r="37" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T37" s="13" t="s">
         <v>80</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T38" s="13" t="s">
         <v>81</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>143.72975871313699</v>
       </c>
     </row>
-    <row r="39" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T39" s="13" t="s">
         <v>82</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>2777.7777777777801</v>
       </c>
     </row>
-    <row r="40" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T40" s="13" t="s">
         <v>83</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>1391.9202722904799</v>
       </c>
     </row>
-    <row r="41" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T41" s="13" t="s">
         <v>84</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>2071.13353846154</v>
       </c>
     </row>
-    <row r="42" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T42" s="13" t="s">
         <v>85</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>1704.1264024060099</v>
       </c>
     </row>
-    <row r="43" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T43" s="13" t="s">
         <v>86</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T44" s="13" t="s">
         <v>87</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>28.5388127853881</v>
       </c>
     </row>
-    <row r="45" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T45" s="13" t="s">
         <v>88</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>16.806189751395198</v>
       </c>
     </row>
-    <row r="46" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T46" s="13" t="s">
         <v>89</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>1391.9202722904799</v>
       </c>
     </row>
-    <row r="48" spans="20:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="20:35" x14ac:dyDescent="0.25">
       <c r="V48" s="13" t="s">
         <v>68</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S49" s="13" t="s">
         <v>69</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S50" s="13" t="s">
         <v>71</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>14.942538461538501</v>
       </c>
     </row>
-    <row r="51" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S51" s="13" t="s">
         <v>72</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>12.2222222222222</v>
       </c>
     </row>
-    <row r="52" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S52" s="13" t="s">
         <v>73</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>18.8888888888889</v>
       </c>
     </row>
-    <row r="53" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S53" s="13" t="s">
         <v>74</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>12.8888888888889</v>
       </c>
     </row>
-    <row r="54" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S54" s="13" t="s">
         <v>75</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>11.1111111111111</v>
       </c>
     </row>
-    <row r="55" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S55" s="13" t="s">
         <v>76</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>11.1111111111111</v>
       </c>
     </row>
-    <row r="56" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S56" s="13" t="s">
         <v>77</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>93.661919999999995</v>
       </c>
     </row>
-    <row r="57" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S57" s="13" t="s">
         <v>78</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="58" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S58" s="13" t="s">
         <v>79</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>82.308959999999999</v>
       </c>
     </row>
-    <row r="59" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S59" s="13" t="s">
         <v>80</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S60" s="13" t="s">
         <v>81</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>17.036203753351199</v>
       </c>
     </row>
-    <row r="61" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S61" s="13" t="s">
         <v>82</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>55.5555555555556</v>
       </c>
     </row>
-    <row r="62" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S62" s="13" t="s">
         <v>83</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>118.73853211677999</v>
       </c>
     </row>
-    <row r="63" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S63" s="13" t="s">
         <v>84</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>233.53014055624399</v>
       </c>
     </row>
-    <row r="64" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S64" s="13" t="s">
         <v>85</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>145.37144949413499</v>
       </c>
     </row>
-    <row r="65" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S65" s="13" t="s">
         <v>86</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S66" s="13" t="s">
         <v>87</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>1.7123287671232901</v>
       </c>
     </row>
-    <row r="67" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S67" s="13" t="s">
         <v>88</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>1.0083713850837099</v>
       </c>
     </row>
-    <row r="68" spans="19:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S68" s="13" t="s">
         <v>89</v>
       </c>
@@ -6476,21 +6476,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
     <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
@@ -6669,24 +6654,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF2A4F12-3B07-4959-8935-8642D5174C5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A18CF5E1-8050-4E4C-B498-87D94C523418}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD59BF8C-6907-4EAF-ABDC-6D2FDB97568F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6703,4 +6686,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A18CF5E1-8050-4E4C-B498-87D94C523418}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF2A4F12-3B07-4959-8935-8642D5174C5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>